--- a/biology/Zoologie/Characodon_lateralis/Characodon_lateralis.xlsx
+++ b/biology/Zoologie/Characodon_lateralis/Characodon_lateralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Characodon lateralis est un poisson de la famille des Goodeidés et de l'ordre des Cyprinodontiformes[1]. Cette espèce fait partie de la tribu des Characodontini[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Characodon lateralis est un poisson de la famille des Goodeidés et de l'ordre des Cyprinodontiformes. Cette espèce fait partie de la tribu des Characodontini.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre uniquement à Durango, au Mexique[1]. Plus précisément l'espèce se rencontre dans quelques habitats le long de la partie inférieure du "Río Mezquital" et au niveau des "cascades d'El Salto" à Durango au Mexique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre uniquement à Durango, au Mexique. Plus précisément l'espèce se rencontre dans quelques habitats le long de la partie inférieure du "Río Mezquital" et au niveau des "cascades d'El Salto" à Durango au Mexique.
 </t>
         </is>
       </c>
@@ -542,11 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de Goodeidae est joliment colorée, de plusieurs patrons suivant les variétés géographiques exactes et les souches, souvent de façon infime. La coloration varie du rougeâtre au jaunâtre et blanc crème[2].
-Taille
-C. lateralis mesure une taille maximale d'environ 4 centimètres pour le mâle[1] et 5,5 centimètres pour la femelle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de Goodeidae est joliment colorée, de plusieurs patrons suivant les variétés géographiques exactes et les souches, souvent de façon infime. La coloration varie du rougeâtre au jaunâtre et blanc crème.
 </t>
         </is>
       </c>
@@ -572,14 +586,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. lateralis mesure une taille maximale d'environ 4 centimètres pour le mâle et 5,5 centimètres pour la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Characodon_lateralis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Characodon_lateralis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statut IUCN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union internationale pour la conservation de la nature IUCN classe en "Danger d'Extinction" (EN) l'espèce (principalement en raison d'une aire de répartition très restreinte). Classé "Vulnérable" en 1986 et en "Danger d'Extinction" depuis 1990[4].
-Note
-Probablement en "Danger Critique d'Extinction" (CR)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union internationale pour la conservation de la nature IUCN classe en "Danger d'Extinction" (EN) l'espèce (principalement en raison d'une aire de répartition très restreinte). Classé "Vulnérable" en 1986 et en "Danger d'Extinction" depuis 1990.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Characodon_lateralis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Characodon_lateralis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statut IUCN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Probablement en "Danger Critique d'Extinction" (CR).
 </t>
         </is>
       </c>
